--- a/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
+++ b/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-oyster-oa/data/2017-07-30-pacific-oyster-larvae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-oyster-oa/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sex" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="191">
   <si>
     <t>Sex</t>
   </si>
@@ -274,13 +274,7 @@
     <t>Container Volume (mL)</t>
   </si>
   <si>
-    <t>Amount Ambient Male Added (mL)</t>
-  </si>
-  <si>
     <t>Stocking Density (eggs/mL)</t>
-  </si>
-  <si>
-    <t>Amount Low Female Added (mL)</t>
   </si>
   <si>
     <t>Oyster ID</t>
@@ -630,13 +624,16 @@
   <si>
     <t>Average hatch rate, excluding high outliers</t>
   </si>
+  <si>
+    <t>Amount Male Added (mL)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -784,7 +781,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1167,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1178,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1186,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1194,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1210,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1218,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,7 +1223,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1234,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1242,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1250,15 +1247,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1266,7 +1263,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1282,10 +1279,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1293,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1298,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1317,7 +1314,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1325,7 +1322,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1333,7 +1330,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1341,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1349,7 +1346,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1357,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1365,7 +1362,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1373,10 +1370,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1384,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1392,7 +1389,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,7 +1397,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1408,7 +1405,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1416,7 +1413,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1424,7 +1421,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1432,7 +1429,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1440,7 +1437,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1448,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1456,7 +1453,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1464,7 +1461,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1472,7 +1469,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1480,7 +1477,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1488,7 +1485,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1496,7 +1493,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,7 +1501,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1512,7 +1509,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,7 +1517,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1528,7 +1525,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1533,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,7 +1541,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1552,7 +1549,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1560,7 +1557,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1568,7 +1565,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1576,7 +1573,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1584,7 +1581,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1592,7 +1589,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1600,7 +1597,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1608,7 +1605,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1616,7 +1613,7 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1624,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1632,7 +1629,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1640,7 +1637,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1648,7 +1645,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1656,7 +1653,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1664,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1672,7 +1669,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1680,7 +1677,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,7 +1685,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1696,7 +1693,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1704,7 +1701,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1712,7 +1709,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1720,7 +1717,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1728,7 +1725,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1736,7 +1733,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1744,7 +1741,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1752,7 +1749,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1760,7 +1757,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1768,15 +1765,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1798,19 +1795,19 @@
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1867,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1878,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1891,7 +1888,7 @@
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -18401,19 +18398,19 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -18478,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -18521,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -18612,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -18665,19 +18662,19 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -18737,8 +18734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18766,40 +18763,40 @@
         <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>79</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -18807,7 +18804,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <f>408/2</f>
@@ -18837,16 +18834,16 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
         <v>118</v>
-      </c>
-      <c r="L2" t="s">
-        <v>120</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -18854,7 +18851,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F29" si="0">((AVERAGE($C$2:$E$2))/25)*2500000</f>
@@ -18874,10 +18871,10 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" t="s">
         <v>118</v>
-      </c>
-      <c r="L3" t="s">
-        <v>120</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -18888,7 +18885,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -18908,7 +18905,7 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M4" s="8">
         <v>0</v>
@@ -18919,7 +18916,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -18939,10 +18936,10 @@
         <v>15</v>
       </c>
       <c r="K5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" t="s">
         <v>118</v>
-      </c>
-      <c r="L5" t="s">
-        <v>120</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -18953,7 +18950,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -18973,10 +18970,10 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" t="s">
         <v>118</v>
-      </c>
-      <c r="L6" t="s">
-        <v>120</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -18987,7 +18984,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -19007,10 +19004,10 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s">
         <v>118</v>
-      </c>
-      <c r="L7" t="s">
-        <v>120</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -19021,7 +19018,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -19041,10 +19038,10 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" t="s">
         <v>118</v>
-      </c>
-      <c r="L8" t="s">
-        <v>120</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -19055,7 +19052,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -19075,7 +19072,7 @@
         <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M9" s="8">
         <v>1</v>
@@ -19086,7 +19083,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -19106,10 +19103,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
         <v>118</v>
-      </c>
-      <c r="L10" t="s">
-        <v>120</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -19120,7 +19117,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -19140,10 +19137,10 @@
         <v>43</v>
       </c>
       <c r="K11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
         <v>118</v>
-      </c>
-      <c r="L11" t="s">
-        <v>120</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -19154,7 +19151,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -19174,10 +19171,10 @@
         <v>52</v>
       </c>
       <c r="K12" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
         <v>118</v>
-      </c>
-      <c r="L12" t="s">
-        <v>120</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -19188,7 +19185,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -19208,10 +19205,10 @@
         <v>59</v>
       </c>
       <c r="K13" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
         <v>118</v>
-      </c>
-      <c r="L13" t="s">
-        <v>120</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -19222,7 +19219,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -19242,10 +19239,10 @@
         <v>62</v>
       </c>
       <c r="K14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s">
         <v>118</v>
-      </c>
-      <c r="L14" t="s">
-        <v>120</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -19256,7 +19253,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -19276,10 +19273,10 @@
         <v>65</v>
       </c>
       <c r="K15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" t="s">
         <v>118</v>
-      </c>
-      <c r="L15" t="s">
-        <v>120</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -19290,7 +19287,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -19310,10 +19307,10 @@
         <v>9</v>
       </c>
       <c r="K16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" t="s">
         <v>118</v>
-      </c>
-      <c r="L16" t="s">
-        <v>120</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -19324,7 +19321,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -19344,10 +19341,10 @@
         <v>10</v>
       </c>
       <c r="K17" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" t="s">
-        <v>120</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -19358,7 +19355,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -19378,10 +19375,10 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="8">
         <v>1</v>
@@ -19392,7 +19389,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -19412,10 +19409,10 @@
         <v>15</v>
       </c>
       <c r="K19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
         <v>118</v>
-      </c>
-      <c r="L19" t="s">
-        <v>120</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -19426,7 +19423,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -19446,10 +19443,10 @@
         <v>16</v>
       </c>
       <c r="K20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" t="s">
         <v>118</v>
-      </c>
-      <c r="L20" t="s">
-        <v>120</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -19460,7 +19457,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -19480,10 +19477,10 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" t="s">
         <v>118</v>
-      </c>
-      <c r="L21" t="s">
-        <v>120</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -19494,7 +19491,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -19514,10 +19511,10 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" t="s">
         <v>118</v>
-      </c>
-      <c r="L22" t="s">
-        <v>120</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -19528,7 +19525,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -19548,10 +19545,10 @@
         <v>24</v>
       </c>
       <c r="K23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" t="s">
         <v>118</v>
-      </c>
-      <c r="L23" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="8">
         <v>1</v>
@@ -19562,7 +19559,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -19582,10 +19579,10 @@
         <v>35</v>
       </c>
       <c r="K24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" t="s">
         <v>118</v>
-      </c>
-      <c r="L24" t="s">
-        <v>120</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -19596,7 +19593,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -19616,10 +19613,10 @@
         <v>43</v>
       </c>
       <c r="K25" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" t="s">
         <v>118</v>
-      </c>
-      <c r="L25" t="s">
-        <v>120</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -19630,7 +19627,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -19650,10 +19647,10 @@
         <v>52</v>
       </c>
       <c r="K26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" t="s">
         <v>118</v>
-      </c>
-      <c r="L26" t="s">
-        <v>120</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -19664,7 +19661,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -19684,10 +19681,10 @@
         <v>59</v>
       </c>
       <c r="K27" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" t="s">
         <v>118</v>
-      </c>
-      <c r="L27" t="s">
-        <v>120</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -19698,7 +19695,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -19718,10 +19715,10 @@
         <v>62</v>
       </c>
       <c r="K28" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" t="s">
         <v>118</v>
-      </c>
-      <c r="L28" t="s">
-        <v>120</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -19732,7 +19729,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -19752,10 +19749,10 @@
         <v>65</v>
       </c>
       <c r="K29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" t="s">
         <v>118</v>
-      </c>
-      <c r="L29" t="s">
-        <v>120</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -19766,7 +19763,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30">
         <v>234</v>
@@ -19795,16 +19792,16 @@
         <v>9</v>
       </c>
       <c r="K30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" t="s">
         <v>118</v>
-      </c>
-      <c r="L30" t="s">
-        <v>120</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -19812,7 +19809,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31:F56" si="2">((AVERAGE($C$30:$E$30))/20)*2500000</f>
@@ -19832,10 +19829,10 @@
         <v>10</v>
       </c>
       <c r="K31" t="s">
+        <v>116</v>
+      </c>
+      <c r="L31" t="s">
         <v>118</v>
-      </c>
-      <c r="L31" t="s">
-        <v>120</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -19846,7 +19843,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
@@ -19866,10 +19863,10 @@
         <v>13</v>
       </c>
       <c r="K32" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32" t="s">
         <v>118</v>
-      </c>
-      <c r="L32" t="s">
-        <v>120</v>
       </c>
       <c r="M32" s="8">
         <v>0</v>
@@ -19880,7 +19877,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
@@ -19900,10 +19897,10 @@
         <v>15</v>
       </c>
       <c r="K33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L33" t="s">
         <v>118</v>
-      </c>
-      <c r="L33" t="s">
-        <v>120</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -19914,7 +19911,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
@@ -19934,10 +19931,10 @@
         <v>16</v>
       </c>
       <c r="K34" t="s">
+        <v>116</v>
+      </c>
+      <c r="L34" t="s">
         <v>118</v>
-      </c>
-      <c r="L34" t="s">
-        <v>120</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -19948,7 +19945,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
@@ -19968,10 +19965,10 @@
         <v>17</v>
       </c>
       <c r="K35" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" t="s">
         <v>118</v>
-      </c>
-      <c r="L35" t="s">
-        <v>120</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -19982,7 +19979,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
@@ -20002,10 +19999,10 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" t="s">
         <v>118</v>
-      </c>
-      <c r="L36" t="s">
-        <v>120</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -20016,7 +20013,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
@@ -20036,10 +20033,10 @@
         <v>24</v>
       </c>
       <c r="K37" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" t="s">
         <v>118</v>
-      </c>
-      <c r="L37" t="s">
-        <v>120</v>
       </c>
       <c r="M37" s="8">
         <v>1</v>
@@ -20050,7 +20047,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
@@ -20070,10 +20067,10 @@
         <v>35</v>
       </c>
       <c r="K38" t="s">
+        <v>116</v>
+      </c>
+      <c r="L38" t="s">
         <v>118</v>
-      </c>
-      <c r="L38" t="s">
-        <v>120</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -20084,7 +20081,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
@@ -20104,10 +20101,10 @@
         <v>43</v>
       </c>
       <c r="K39" t="s">
+        <v>116</v>
+      </c>
+      <c r="L39" t="s">
         <v>118</v>
-      </c>
-      <c r="L39" t="s">
-        <v>120</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -20118,7 +20115,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
@@ -20138,10 +20135,10 @@
         <v>52</v>
       </c>
       <c r="K40" t="s">
+        <v>116</v>
+      </c>
+      <c r="L40" t="s">
         <v>118</v>
-      </c>
-      <c r="L40" t="s">
-        <v>120</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -20152,7 +20149,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
@@ -20172,10 +20169,10 @@
         <v>59</v>
       </c>
       <c r="K41" t="s">
+        <v>116</v>
+      </c>
+      <c r="L41" t="s">
         <v>118</v>
-      </c>
-      <c r="L41" t="s">
-        <v>120</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -20186,7 +20183,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
@@ -20206,10 +20203,10 @@
         <v>62</v>
       </c>
       <c r="K42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" t="s">
         <v>118</v>
-      </c>
-      <c r="L42" t="s">
-        <v>120</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -20220,7 +20217,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
@@ -20240,10 +20237,10 @@
         <v>65</v>
       </c>
       <c r="K43" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" t="s">
         <v>118</v>
-      </c>
-      <c r="L43" t="s">
-        <v>120</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -20254,7 +20251,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
@@ -20274,10 +20271,10 @@
         <v>9</v>
       </c>
       <c r="K44" t="s">
+        <v>116</v>
+      </c>
+      <c r="L44" t="s">
         <v>118</v>
-      </c>
-      <c r="L44" t="s">
-        <v>120</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -20288,7 +20285,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
@@ -20308,10 +20305,10 @@
         <v>10</v>
       </c>
       <c r="K45" t="s">
+        <v>116</v>
+      </c>
+      <c r="L45" t="s">
         <v>118</v>
-      </c>
-      <c r="L45" t="s">
-        <v>120</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -20322,7 +20319,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
@@ -20342,10 +20339,10 @@
         <v>13</v>
       </c>
       <c r="K46" t="s">
+        <v>116</v>
+      </c>
+      <c r="L46" t="s">
         <v>118</v>
-      </c>
-      <c r="L46" t="s">
-        <v>120</v>
       </c>
       <c r="M46" s="8">
         <v>1</v>
@@ -20356,7 +20353,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
@@ -20376,10 +20373,10 @@
         <v>15</v>
       </c>
       <c r="K47" t="s">
+        <v>116</v>
+      </c>
+      <c r="L47" t="s">
         <v>118</v>
-      </c>
-      <c r="L47" t="s">
-        <v>120</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -20390,7 +20387,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
@@ -20410,10 +20407,10 @@
         <v>16</v>
       </c>
       <c r="K48" t="s">
+        <v>116</v>
+      </c>
+      <c r="L48" t="s">
         <v>118</v>
-      </c>
-      <c r="L48" t="s">
-        <v>120</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -20424,7 +20421,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
@@ -20444,10 +20441,10 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
+        <v>116</v>
+      </c>
+      <c r="L49" t="s">
         <v>118</v>
-      </c>
-      <c r="L49" t="s">
-        <v>120</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -20458,7 +20455,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
@@ -20478,10 +20475,10 @@
         <v>22</v>
       </c>
       <c r="K50" t="s">
+        <v>116</v>
+      </c>
+      <c r="L50" t="s">
         <v>118</v>
-      </c>
-      <c r="L50" t="s">
-        <v>120</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -20492,7 +20489,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
@@ -20512,10 +20509,10 @@
         <v>24</v>
       </c>
       <c r="K51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" t="s">
         <v>118</v>
-      </c>
-      <c r="L51" t="s">
-        <v>120</v>
       </c>
       <c r="M51" s="8">
         <v>1</v>
@@ -20526,7 +20523,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
@@ -20546,10 +20543,10 @@
         <v>35</v>
       </c>
       <c r="K52" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" t="s">
         <v>118</v>
-      </c>
-      <c r="L52" t="s">
-        <v>120</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -20560,7 +20557,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
@@ -20580,10 +20577,10 @@
         <v>43</v>
       </c>
       <c r="K53" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" t="s">
         <v>118</v>
-      </c>
-      <c r="L53" t="s">
-        <v>120</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -20594,7 +20591,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
@@ -20614,10 +20611,10 @@
         <v>52</v>
       </c>
       <c r="K54" t="s">
+        <v>116</v>
+      </c>
+      <c r="L54" t="s">
         <v>118</v>
-      </c>
-      <c r="L54" t="s">
-        <v>120</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -20628,7 +20625,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
@@ -20648,10 +20645,10 @@
         <v>59</v>
       </c>
       <c r="K55" t="s">
+        <v>116</v>
+      </c>
+      <c r="L55" t="s">
         <v>118</v>
-      </c>
-      <c r="L55" t="s">
-        <v>120</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -20662,7 +20659,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56">
         <f t="shared" si="2"/>
@@ -20682,10 +20679,10 @@
         <v>62</v>
       </c>
       <c r="K56" t="s">
+        <v>116</v>
+      </c>
+      <c r="L56" t="s">
         <v>118</v>
-      </c>
-      <c r="L56" t="s">
-        <v>120</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -20696,7 +20693,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F57">
         <f>((AVERAGE($C$30:$E$30))/20)*2500000</f>
@@ -20716,10 +20713,10 @@
         <v>65</v>
       </c>
       <c r="K57" t="s">
+        <v>116</v>
+      </c>
+      <c r="L57" t="s">
         <v>118</v>
-      </c>
-      <c r="L57" t="s">
-        <v>120</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -20730,7 +20727,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58">
         <v>247</v>
@@ -20759,16 +20756,16 @@
         <v>73</v>
       </c>
       <c r="K58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -20776,7 +20773,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F59">
         <f t="shared" ref="F59:F61" si="3">((AVERAGE($C$58:$E$58))/20)*1000000</f>
@@ -20793,13 +20790,13 @@
         <v>19.021739130434781</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -20810,7 +20807,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
@@ -20830,10 +20827,10 @@
         <v>73</v>
       </c>
       <c r="K60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -20844,7 +20841,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
@@ -20861,13 +20858,13 @@
         <v>19.021739130434781</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -20905,49 +20902,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <f>2*10.0190839694656</f>
@@ -20993,7 +20990,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B13" si="0">2*10.0190839694656</f>
@@ -21039,7 +21036,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -21085,7 +21082,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -21131,7 +21128,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -21177,7 +21174,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -21223,7 +21220,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -21269,7 +21266,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -21315,7 +21312,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -21361,7 +21358,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -21407,7 +21404,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -21453,7 +21450,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -21499,7 +21496,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <f>2*8.03571428571428</f>
@@ -21545,12 +21542,12 @@
         <v>0.51066666661455828</v>
       </c>
       <c r="N14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B25" si="5">2*8.03571428571428</f>
@@ -21596,7 +21593,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <f t="shared" si="5"/>
@@ -21640,12 +21637,12 @@
         <v>1.0126984125950769</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <f t="shared" si="5"/>
@@ -21691,7 +21688,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
@@ -21737,7 +21734,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <f t="shared" si="5"/>
@@ -21781,12 +21778,12 @@
         <v>0.99428571418425737</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <f t="shared" si="5"/>
@@ -21832,7 +21829,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <f t="shared" si="5"/>
@@ -21878,7 +21875,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <f t="shared" si="5"/>
@@ -21924,7 +21921,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23">
         <f t="shared" si="5"/>
@@ -21970,7 +21967,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24">
         <f t="shared" si="5"/>
@@ -22016,7 +22013,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B25">
         <f t="shared" si="5"/>
@@ -22060,12 +22057,12 @@
         <v>1.163492063373341</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26">
         <f>2*19.0217391304348</f>
@@ -22111,7 +22108,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27">
         <f>2*19.0217391304348</f>
@@ -22162,7 +22159,7 @@
         <v>0.47991437564519612</v>
       </c>
       <c r="N28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -22181,7 +22178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="102" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="102" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -22199,47 +22196,47 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="18">
         <f>SUM(hatching!L2:L7)</f>
@@ -22260,7 +22257,7 @@
         <v>93</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L2" s="18">
         <f>D2/5</f>
@@ -22269,13 +22266,13 @@
     </row>
     <row r="3" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="18">
         <f>SUM(hatching!L8:L13)</f>
@@ -22296,7 +22293,7 @@
         <v>93</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L3" s="18">
         <f>D3/5</f>
@@ -22305,13 +22302,13 @@
     </row>
     <row r="4" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="18">
         <f>SUM(hatching!L14:L19)</f>
@@ -22332,7 +22329,7 @@
         <v>57</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L4" s="18">
         <f>839913.9394/5</f>
@@ -22341,13 +22338,13 @@
     </row>
     <row r="5" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="18">
         <f>SUM(hatching!L20:L25)</f>
@@ -22368,7 +22365,7 @@
         <v>57</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L5" s="18">
         <f>841320/5</f>
@@ -22377,13 +22374,13 @@
     </row>
     <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D6" s="18">
         <f>SUM(hatching!L26:L27)</f>
@@ -22404,7 +22401,7 @@
         <v>56</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L6" s="18">
         <f>850666.6667/4</f>
@@ -22438,36 +22435,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
         <v>187</v>
       </c>
-      <c r="B1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>189</v>
-      </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>140</v>

--- a/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
+++ b/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="sex" sheetId="1" r:id="rId1"/>
@@ -18734,7 +18734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -22179,7 +22179,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="102" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22423,8 +22423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
+++ b/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sex" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="194">
   <si>
     <t>Sex</t>
   </si>
@@ -627,6 +627,15 @@
   <si>
     <t>Amount Male Added (mL)</t>
   </si>
+  <si>
+    <t>22 total low females</t>
+  </si>
+  <si>
+    <t>26 total ambient females</t>
+  </si>
+  <si>
+    <t>6 total heat shock females</t>
+  </si>
 </sst>
 </file>
 
@@ -750,7 +759,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -782,6 +791,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1785,7 +1795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD62"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18395,6 +18407,9 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -18659,6 +18674,9 @@
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="C55" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -18723,6 +18741,9 @@
       </c>
       <c r="B62">
         <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -18735,7 +18756,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20880,8 +20901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20983,7 +21004,7 @@
         <f>(K2*J2)/E2</f>
         <v>71200</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="19">
         <f>L2/C2</f>
         <v>0.33904761904762076</v>
       </c>
@@ -21029,7 +21050,7 @@
         <f>(K3*J3)/E3</f>
         <v>98933.333333333343</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="19">
         <f t="shared" ref="M3:M27" si="3">L3/C3</f>
         <v>0.47111111111111353</v>
       </c>
@@ -21075,7 +21096,7 @@
         <f>(K4*J4)/E4</f>
         <v>107280</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="19">
         <f t="shared" si="3"/>
         <v>0.51085714285714545</v>
       </c>
@@ -21121,7 +21142,7 @@
         <f t="shared" ref="L5:L27" si="4">(K5*J5)/E5</f>
         <v>88500</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="19">
         <f t="shared" si="3"/>
         <v>0.42142857142857354</v>
       </c>
@@ -21167,7 +21188,7 @@
         <f t="shared" si="4"/>
         <v>85333.333333333343</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="19">
         <f t="shared" si="3"/>
         <v>0.4063492063492084</v>
       </c>
@@ -21213,7 +21234,7 @@
         <f t="shared" si="4"/>
         <v>65079.365079365074</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="19">
         <f t="shared" si="3"/>
         <v>0.30990173847316854</v>
       </c>
@@ -21259,7 +21280,7 @@
         <f t="shared" si="4"/>
         <v>93866.666666666672</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="19">
         <f t="shared" si="3"/>
         <v>0.44698412698412926</v>
       </c>
@@ -21305,7 +21326,7 @@
         <f t="shared" si="4"/>
         <v>67200</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f t="shared" si="3"/>
         <v>0.32000000000000162</v>
       </c>
@@ -21351,7 +21372,7 @@
         <f t="shared" si="4"/>
         <v>100520</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="19">
         <f t="shared" si="3"/>
         <v>0.47866666666666907</v>
       </c>
@@ -21397,7 +21418,7 @@
         <f t="shared" si="4"/>
         <v>37777.777777777774</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="19">
         <f t="shared" si="3"/>
         <v>0.17989417989418077</v>
       </c>
@@ -21443,7 +21464,7 @@
         <f t="shared" si="4"/>
         <v>136800</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="19">
         <f t="shared" si="3"/>
         <v>0.65142857142857469</v>
       </c>
@@ -21489,7 +21510,7 @@
         <f t="shared" si="4"/>
         <v>79733.333333333343</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="19">
         <f t="shared" si="3"/>
         <v>0.37968253968254162</v>
       </c>
@@ -21537,7 +21558,7 @@
         <f t="shared" si="4"/>
         <v>107240</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="19">
         <f t="shared" si="3"/>
         <v>0.51066666661455828</v>
       </c>
@@ -21586,7 +21607,7 @@
         <f t="shared" si="4"/>
         <v>72727.272727272721</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="19">
         <f t="shared" si="3"/>
         <v>0.3463203462850078</v>
       </c>
@@ -21632,7 +21653,7 @@
         <f t="shared" si="4"/>
         <v>212666.66666666666</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="19">
         <f t="shared" si="3"/>
         <v>1.0126984125950769</v>
       </c>
@@ -21681,7 +21702,7 @@
         <f t="shared" si="4"/>
         <v>122320</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="19">
         <f t="shared" si="3"/>
         <v>0.58247619041675458</v>
       </c>
@@ -21727,7 +21748,7 @@
         <f t="shared" si="4"/>
         <v>116160</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="19">
         <f t="shared" si="3"/>
         <v>0.55314285708641442</v>
       </c>
@@ -21773,7 +21794,7 @@
         <f t="shared" si="4"/>
         <v>208800</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f t="shared" si="3"/>
         <v>0.99428571418425737</v>
       </c>
@@ -21822,7 +21843,7 @@
         <f t="shared" si="4"/>
         <v>129066.66666666667</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="19">
         <f t="shared" si="3"/>
         <v>0.61460317454046054</v>
       </c>
@@ -21868,7 +21889,7 @@
         <f t="shared" si="4"/>
         <v>152720</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="19">
         <f t="shared" si="3"/>
         <v>0.72723809516388793</v>
       </c>
@@ -21914,7 +21935,7 @@
         <f t="shared" si="4"/>
         <v>111733.33333333333</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="19">
         <f t="shared" si="3"/>
         <v>0.53206349200920033</v>
       </c>
@@ -21960,7 +21981,7 @@
         <f t="shared" si="4"/>
         <v>90666.666666666657</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="19">
         <f t="shared" si="3"/>
         <v>0.43174603170197634</v>
       </c>
@@ -22006,7 +22027,7 @@
         <f t="shared" si="4"/>
         <v>112800</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f t="shared" si="3"/>
         <v>0.5371428570880471</v>
       </c>
@@ -22052,7 +22073,7 @@
         <f t="shared" si="4"/>
         <v>244333.33333333337</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="19">
         <f t="shared" si="3"/>
         <v>1.163492063373341</v>
       </c>
@@ -22101,7 +22122,7 @@
         <f t="shared" si="4"/>
         <v>498666.66666666674</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="19">
         <f t="shared" si="3"/>
         <v>0.80736507936507873</v>
       </c>
@@ -22147,7 +22168,7 @@
         <f t="shared" si="4"/>
         <v>352000</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="19">
         <f t="shared" si="3"/>
         <v>0.56990476190476136</v>
       </c>
@@ -22179,7 +22200,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="102" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22423,7 +22444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>

--- a/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
+++ b/data/Manchester/2017-07-30-Pacific-Oyster-Larvae/2017-07-29-Spawning-Calculations.xlsx
@@ -759,7 +759,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -791,7 +791,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -20902,7 +20901,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21004,7 +21003,7 @@
         <f>(K2*J2)/E2</f>
         <v>71200</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="17">
         <f>L2/C2</f>
         <v>0.33904761904762076</v>
       </c>
@@ -21050,7 +21049,7 @@
         <f>(K3*J3)/E3</f>
         <v>98933.333333333343</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="17">
         <f t="shared" ref="M3:M27" si="3">L3/C3</f>
         <v>0.47111111111111353</v>
       </c>
@@ -21096,7 +21095,7 @@
         <f>(K4*J4)/E4</f>
         <v>107280</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <f t="shared" si="3"/>
         <v>0.51085714285714545</v>
       </c>
@@ -21142,7 +21141,7 @@
         <f t="shared" ref="L5:L27" si="4">(K5*J5)/E5</f>
         <v>88500</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="17">
         <f t="shared" si="3"/>
         <v>0.42142857142857354</v>
       </c>
@@ -21188,7 +21187,7 @@
         <f t="shared" si="4"/>
         <v>85333.333333333343</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="17">
         <f t="shared" si="3"/>
         <v>0.4063492063492084</v>
       </c>
@@ -21234,7 +21233,7 @@
         <f t="shared" si="4"/>
         <v>65079.365079365074</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="17">
         <f t="shared" si="3"/>
         <v>0.30990173847316854</v>
       </c>
@@ -21280,7 +21279,7 @@
         <f t="shared" si="4"/>
         <v>93866.666666666672</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="17">
         <f t="shared" si="3"/>
         <v>0.44698412698412926</v>
       </c>
@@ -21326,7 +21325,7 @@
         <f t="shared" si="4"/>
         <v>67200</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f t="shared" si="3"/>
         <v>0.32000000000000162</v>
       </c>
@@ -21372,7 +21371,7 @@
         <f t="shared" si="4"/>
         <v>100520</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="17">
         <f t="shared" si="3"/>
         <v>0.47866666666666907</v>
       </c>
@@ -21418,7 +21417,7 @@
         <f t="shared" si="4"/>
         <v>37777.777777777774</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="17">
         <f t="shared" si="3"/>
         <v>0.17989417989418077</v>
       </c>
@@ -21464,7 +21463,7 @@
         <f t="shared" si="4"/>
         <v>136800</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="17">
         <f t="shared" si="3"/>
         <v>0.65142857142857469</v>
       </c>
@@ -21510,7 +21509,7 @@
         <f t="shared" si="4"/>
         <v>79733.333333333343</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="17">
         <f t="shared" si="3"/>
         <v>0.37968253968254162</v>
       </c>
@@ -21558,7 +21557,7 @@
         <f t="shared" si="4"/>
         <v>107240</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <f t="shared" si="3"/>
         <v>0.51066666661455828</v>
       </c>
@@ -21607,7 +21606,7 @@
         <f t="shared" si="4"/>
         <v>72727.272727272721</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="17">
         <f t="shared" si="3"/>
         <v>0.3463203462850078</v>
       </c>
@@ -21653,7 +21652,7 @@
         <f t="shared" si="4"/>
         <v>212666.66666666666</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="17">
         <f t="shared" si="3"/>
         <v>1.0126984125950769</v>
       </c>
@@ -21702,7 +21701,7 @@
         <f t="shared" si="4"/>
         <v>122320</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <f t="shared" si="3"/>
         <v>0.58247619041675458</v>
       </c>
@@ -21748,7 +21747,7 @@
         <f t="shared" si="4"/>
         <v>116160</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="17">
         <f t="shared" si="3"/>
         <v>0.55314285708641442</v>
       </c>
@@ -21794,7 +21793,7 @@
         <f t="shared" si="4"/>
         <v>208800</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f t="shared" si="3"/>
         <v>0.99428571418425737</v>
       </c>
@@ -21843,7 +21842,7 @@
         <f t="shared" si="4"/>
         <v>129066.66666666667</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="17">
         <f t="shared" si="3"/>
         <v>0.61460317454046054</v>
       </c>
@@ -21889,7 +21888,7 @@
         <f t="shared" si="4"/>
         <v>152720</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="17">
         <f t="shared" si="3"/>
         <v>0.72723809516388793</v>
       </c>
@@ -21935,7 +21934,7 @@
         <f t="shared" si="4"/>
         <v>111733.33333333333</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="17">
         <f t="shared" si="3"/>
         <v>0.53206349200920033</v>
       </c>
@@ -21981,7 +21980,7 @@
         <f t="shared" si="4"/>
         <v>90666.666666666657</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="17">
         <f t="shared" si="3"/>
         <v>0.43174603170197634</v>
       </c>
@@ -22027,7 +22026,7 @@
         <f t="shared" si="4"/>
         <v>112800</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f t="shared" si="3"/>
         <v>0.5371428570880471</v>
       </c>
@@ -22073,7 +22072,7 @@
         <f t="shared" si="4"/>
         <v>244333.33333333337</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="17">
         <f t="shared" si="3"/>
         <v>1.163492063373341</v>
       </c>
@@ -22122,7 +22121,7 @@
         <f t="shared" si="4"/>
         <v>498666.66666666674</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="17">
         <f t="shared" si="3"/>
         <v>0.80736507936507873</v>
       </c>
@@ -22168,7 +22167,7 @@
         <f t="shared" si="4"/>
         <v>352000</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="17">
         <f t="shared" si="3"/>
         <v>0.56990476190476136</v>
       </c>
